--- a/Протокол 101_104.xlsx
+++ b/Протокол 101_104.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="744">
   <si>
     <t>№101</t>
   </si>
@@ -1336,9 +1335,6 @@
     <t>ЗАЩ Предуп 0x0008: Автоконтроль</t>
   </si>
   <si>
-    <t>РЗСК</t>
-  </si>
-  <si>
     <t>Р400м-100-В-Х-Х</t>
   </si>
   <si>
@@ -2246,6 +2242,12 @@
   </si>
   <si>
     <t>Сниж.ур. КЧ</t>
+  </si>
+  <si>
+    <t>РЗСК-1XX-В</t>
+  </si>
+  <si>
+    <t>ПРМ Неиспр 0x0004: Нет КЧ</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2285,6 +2287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,7 +2324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2347,16 +2355,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2661,8 +2673,8 @@
   <dimension ref="A1:L406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,11 +2690,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>455</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2694,32 +2706,32 @@
         <v>367</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>742</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3946,25 +3958,25 @@
         <v>68</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K38" s="6"/>
     </row>
@@ -4486,7 +4498,7 @@
         <v>109</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>278</v>
@@ -4520,7 +4532,7 @@
         <v>110</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>279</v>
@@ -4554,7 +4566,7 @@
         <v>111</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>280</v>
@@ -4588,7 +4600,7 @@
         <v>112</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>281</v>
@@ -4622,7 +4634,7 @@
         <v>113</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>282</v>
@@ -4758,7 +4770,7 @@
         <v>117</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>370</v>
@@ -4792,7 +4804,7 @@
         <v>121</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>284</v>
@@ -4860,7 +4872,7 @@
         <v>119</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>371</v>
@@ -4894,7 +4906,7 @@
         <v>118</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>395</v>
@@ -5018,33 +5030,33 @@
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="17">
         <f t="shared" si="5"/>
         <v>2317</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="17">
         <f t="shared" si="5"/>
         <v>3317</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="F70" s="5" t="s">
+      <c r="E70" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="F70" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="J70" s="5"/>
+      <c r="H70" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="J70" s="18"/>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5098,7 +5110,7 @@
         <v>128</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>373</v>
@@ -5132,7 +5144,7 @@
         <v>129</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>374</v>
@@ -5166,7 +5178,7 @@
         <v>125</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>375</v>
@@ -5178,7 +5190,7 @@
         <v>375</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="6"/>
@@ -5379,7 +5391,7 @@
         <v>309</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>309</v>
@@ -5634,10 +5646,10 @@
         <v>3401</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>288</v>
@@ -5668,10 +5680,10 @@
         <v>3402</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>289</v>
@@ -5906,10 +5918,10 @@
         <v>3409</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>290</v>
@@ -5940,10 +5952,10 @@
         <v>3410</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>291</v>
@@ -5974,10 +5986,10 @@
         <v>3411</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>292</v>
@@ -6008,10 +6020,10 @@
         <v>3412</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>293</v>
@@ -6178,7 +6190,7 @@
         <v>3417</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>68</v>
@@ -6212,10 +6224,10 @@
         <v>3418</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>381</v>
@@ -6246,10 +6258,10 @@
         <v>3419</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>382</v>
@@ -6887,7 +6899,7 @@
         <v>68</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>81</v>
@@ -6921,7 +6933,7 @@
         <v>68</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>82</v>
@@ -6955,7 +6967,7 @@
         <v>68</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>83</v>
@@ -6989,7 +7001,7 @@
         <v>68</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>84</v>
@@ -7968,7 +7980,7 @@
       <c r="J157" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K157" s="18"/>
+      <c r="K157" s="15"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -8020,10 +8032,10 @@
         <v>3501</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>296</v>
@@ -8056,10 +8068,10 @@
         <v>3502</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>297</v>
@@ -8092,10 +8104,10 @@
         <v>3503</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>383</v>
@@ -8104,7 +8116,7 @@
         <v>68</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>383</v>
+        <v>743</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>383</v>
@@ -8131,7 +8143,7 @@
         <v>165</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>384</v>
@@ -8308,10 +8320,10 @@
         <v>3509</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>298</v>
@@ -8344,10 +8356,10 @@
         <v>3510</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>299</v>
@@ -8380,10 +8392,10 @@
         <v>3511</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>300</v>
@@ -8416,10 +8428,10 @@
         <v>3512</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>301</v>
@@ -8596,10 +8608,10 @@
         <v>3517</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>385</v>
@@ -8632,10 +8644,10 @@
         <v>3518</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>386</v>
@@ -8668,10 +8680,10 @@
         <v>3519</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>387</v>
@@ -8707,7 +8719,7 @@
         <v>174</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>388</v>
@@ -9361,7 +9373,7 @@
         <v>68</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>191</v>
@@ -9397,7 +9409,7 @@
         <v>68</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="I197" s="5" t="s">
         <v>192</v>
@@ -9433,7 +9445,7 @@
         <v>68</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="I198" s="5" t="s">
         <v>193</v>
@@ -9469,7 +9481,7 @@
         <v>68</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="I199" s="5" t="s">
         <v>194</v>
@@ -10749,10 +10761,10 @@
         <v>405</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J235" s="5" t="s">
         <v>68</v>
@@ -11076,7 +11088,7 @@
         <v>418</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J244" s="5" t="s">
         <v>68</v>
@@ -11109,10 +11121,10 @@
         <v>419</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J245" s="5" t="s">
         <v>68</v>
@@ -11145,10 +11157,10 @@
         <v>420</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J246" s="5" t="s">
         <v>68</v>
@@ -11181,10 +11193,10 @@
         <v>435</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J247" s="5" t="s">
         <v>68</v>
@@ -11744,7 +11756,7 @@
         <v>3633</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>68</v>
@@ -11753,13 +11765,13 @@
         <v>68</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J263" s="5" t="s">
         <v>68</v>
@@ -11779,7 +11791,7 @@
         <v>3634</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>68</v>
@@ -11788,13 +11800,13 @@
         <v>68</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J264" s="5" t="s">
         <v>68</v>
@@ -11814,7 +11826,7 @@
         <v>3635</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>68</v>
@@ -11823,13 +11835,13 @@
         <v>68</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>68</v>
@@ -11849,7 +11861,7 @@
         <v>3636</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E266" s="5" t="s">
         <v>68</v>
@@ -11858,13 +11870,13 @@
         <v>68</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J266" s="5" t="s">
         <v>68</v>
@@ -11884,7 +11896,7 @@
         <v>3637</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E267" s="5" t="s">
         <v>68</v>
@@ -11893,13 +11905,13 @@
         <v>68</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J267" s="5" t="s">
         <v>68</v>
@@ -11919,7 +11931,7 @@
         <v>3638</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>68</v>
@@ -11928,13 +11940,13 @@
         <v>68</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J268" s="5" t="s">
         <v>68</v>
@@ -11945,45 +11957,48 @@
       <c r="A269" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B269" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="15"/>
-      <c r="I269" s="15"/>
-      <c r="J269" s="15"/>
-      <c r="K269" s="19"/>
+      <c r="B269" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="19"/>
+      <c r="G269" s="19"/>
+      <c r="H269" s="19"/>
+      <c r="I269" s="19"/>
+      <c r="J269" s="19"/>
+      <c r="K269" s="16"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>700</v>
       </c>
-      <c r="B270" s="4"/>
+      <c r="B270" s="4">
+        <f>A270+$B$3</f>
+        <v>2700</v>
+      </c>
       <c r="C270" s="4"/>
       <c r="D270" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K270" s="6"/>
     </row>
@@ -11992,943 +12007,1039 @@
         <f>A270+1</f>
         <v>701</v>
       </c>
-      <c r="B271" s="4"/>
+      <c r="B271" s="4">
+        <f t="shared" ref="B271:B334" si="17">A271+$B$3</f>
+        <v>2701</v>
+      </c>
       <c r="C271" s="4"/>
       <c r="D271" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K271" s="6"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <f t="shared" ref="A272:A335" si="17">A271+1</f>
+        <f t="shared" ref="A272:A335" si="18">A271+1</f>
         <v>702</v>
       </c>
-      <c r="B272" s="4"/>
+      <c r="B272" s="4">
+        <f t="shared" si="17"/>
+        <v>2702</v>
+      </c>
       <c r="C272" s="4"/>
       <c r="D272" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K272" s="6"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
+        <f t="shared" si="18"/>
+        <v>703</v>
+      </c>
+      <c r="B273" s="4">
         <f t="shared" si="17"/>
-        <v>703</v>
-      </c>
-      <c r="B273" s="4"/>
+        <v>2703</v>
+      </c>
       <c r="C273" s="4"/>
       <c r="D273" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F273" s="5" t="s">
         <v>68</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I273" s="5" t="s">
         <v>68</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K273" s="6"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
+        <f t="shared" si="18"/>
+        <v>704</v>
+      </c>
+      <c r="B274" s="4">
         <f t="shared" si="17"/>
-        <v>704</v>
-      </c>
-      <c r="B274" s="4"/>
+        <v>2704</v>
+      </c>
       <c r="C274" s="4"/>
       <c r="D274" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K274" s="6"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
+        <f t="shared" si="18"/>
+        <v>705</v>
+      </c>
+      <c r="B275" s="4">
         <f t="shared" si="17"/>
-        <v>705</v>
-      </c>
-      <c r="B275" s="4"/>
+        <v>2705</v>
+      </c>
       <c r="C275" s="4"/>
       <c r="D275" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K275" s="6"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
+        <f t="shared" si="18"/>
+        <v>706</v>
+      </c>
+      <c r="B276" s="4">
         <f t="shared" si="17"/>
-        <v>706</v>
-      </c>
-      <c r="B276" s="4"/>
+        <v>2706</v>
+      </c>
       <c r="C276" s="4"/>
       <c r="D276" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K276" s="6"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
+        <f t="shared" si="18"/>
+        <v>707</v>
+      </c>
+      <c r="B277" s="4">
         <f t="shared" si="17"/>
-        <v>707</v>
-      </c>
-      <c r="B277" s="4"/>
+        <v>2707</v>
+      </c>
       <c r="C277" s="4"/>
       <c r="D277" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K277" s="6"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
+        <f t="shared" si="18"/>
+        <v>708</v>
+      </c>
+      <c r="B278" s="4">
         <f t="shared" si="17"/>
-        <v>708</v>
-      </c>
-      <c r="B278" s="4"/>
+        <v>2708</v>
+      </c>
       <c r="C278" s="4"/>
       <c r="D278" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K278" s="6"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
+        <f t="shared" si="18"/>
+        <v>709</v>
+      </c>
+      <c r="B279" s="4">
         <f t="shared" si="17"/>
-        <v>709</v>
-      </c>
-      <c r="B279" s="4"/>
+        <v>2709</v>
+      </c>
       <c r="C279" s="4"/>
       <c r="D279" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K279" s="6"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
+        <f t="shared" si="18"/>
+        <v>710</v>
+      </c>
+      <c r="B280" s="4">
         <f t="shared" si="17"/>
-        <v>710</v>
-      </c>
-      <c r="B280" s="4"/>
+        <v>2710</v>
+      </c>
       <c r="C280" s="4"/>
       <c r="D280" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K280" s="6"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
+        <f t="shared" si="18"/>
+        <v>711</v>
+      </c>
+      <c r="B281" s="4">
         <f t="shared" si="17"/>
-        <v>711</v>
-      </c>
-      <c r="B281" s="4"/>
+        <v>2711</v>
+      </c>
       <c r="C281" s="4"/>
       <c r="D281" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K281" s="6"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
+        <f t="shared" si="18"/>
+        <v>712</v>
+      </c>
+      <c r="B282" s="4">
         <f t="shared" si="17"/>
-        <v>712</v>
-      </c>
-      <c r="B282" s="4"/>
+        <v>2712</v>
+      </c>
       <c r="C282" s="4"/>
       <c r="D282" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J282" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K282" s="6"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
+        <f t="shared" si="18"/>
+        <v>713</v>
+      </c>
+      <c r="B283" s="4">
         <f t="shared" si="17"/>
-        <v>713</v>
-      </c>
-      <c r="B283" s="4"/>
+        <v>2713</v>
+      </c>
       <c r="C283" s="4"/>
       <c r="D283" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K283" s="6"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
+        <f t="shared" si="18"/>
+        <v>714</v>
+      </c>
+      <c r="B284" s="4">
         <f t="shared" si="17"/>
-        <v>714</v>
-      </c>
-      <c r="B284" s="4"/>
+        <v>2714</v>
+      </c>
       <c r="C284" s="4"/>
       <c r="D284" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K284" s="6"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
+        <f t="shared" si="18"/>
+        <v>715</v>
+      </c>
+      <c r="B285" s="4">
         <f t="shared" si="17"/>
-        <v>715</v>
-      </c>
-      <c r="B285" s="4"/>
+        <v>2715</v>
+      </c>
       <c r="C285" s="4"/>
       <c r="D285" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K285" s="6"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
+        <f t="shared" si="18"/>
+        <v>716</v>
+      </c>
+      <c r="B286" s="4">
         <f t="shared" si="17"/>
-        <v>716</v>
-      </c>
-      <c r="B286" s="4"/>
+        <v>2716</v>
+      </c>
       <c r="C286" s="4"/>
       <c r="D286" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K286" s="6"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
+        <f t="shared" si="18"/>
+        <v>717</v>
+      </c>
+      <c r="B287" s="4">
         <f t="shared" si="17"/>
-        <v>717</v>
-      </c>
-      <c r="B287" s="4"/>
+        <v>2717</v>
+      </c>
       <c r="C287" s="4"/>
       <c r="D287" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="K287" s="6"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
+        <f t="shared" si="18"/>
+        <v>718</v>
+      </c>
+      <c r="B288" s="4">
         <f t="shared" si="17"/>
-        <v>718</v>
-      </c>
-      <c r="B288" s="4"/>
+        <v>2718</v>
+      </c>
       <c r="C288" s="4"/>
       <c r="D288" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K288" s="6"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
+        <f t="shared" si="18"/>
+        <v>719</v>
+      </c>
+      <c r="B289" s="4">
         <f t="shared" si="17"/>
-        <v>719</v>
-      </c>
-      <c r="B289" s="4"/>
+        <v>2719</v>
+      </c>
       <c r="C289" s="4"/>
       <c r="D289" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K289" s="6"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
+        <f t="shared" si="18"/>
+        <v>720</v>
+      </c>
+      <c r="B290" s="4">
         <f t="shared" si="17"/>
-        <v>720</v>
-      </c>
-      <c r="B290" s="4"/>
+        <v>2720</v>
+      </c>
       <c r="C290" s="4"/>
       <c r="D290" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K290" s="6"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
+        <f t="shared" si="18"/>
+        <v>721</v>
+      </c>
+      <c r="B291" s="4">
         <f t="shared" si="17"/>
-        <v>721</v>
-      </c>
-      <c r="B291" s="4"/>
+        <v>2721</v>
+      </c>
       <c r="C291" s="4"/>
       <c r="D291" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K291" s="6"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
+        <f t="shared" si="18"/>
+        <v>722</v>
+      </c>
+      <c r="B292" s="4">
         <f t="shared" si="17"/>
-        <v>722</v>
-      </c>
-      <c r="B292" s="4"/>
+        <v>2722</v>
+      </c>
       <c r="C292" s="4"/>
       <c r="D292" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K292" s="6"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
+        <f t="shared" si="18"/>
+        <v>723</v>
+      </c>
+      <c r="B293" s="4">
         <f t="shared" si="17"/>
-        <v>723</v>
-      </c>
-      <c r="B293" s="4"/>
+        <v>2723</v>
+      </c>
       <c r="C293" s="4"/>
       <c r="D293" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K293" s="6"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
+        <f t="shared" si="18"/>
+        <v>724</v>
+      </c>
+      <c r="B294" s="4">
         <f t="shared" si="17"/>
-        <v>724</v>
-      </c>
-      <c r="B294" s="4"/>
+        <v>2724</v>
+      </c>
       <c r="C294" s="4"/>
       <c r="D294" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K294" s="6"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
+        <f t="shared" si="18"/>
+        <v>725</v>
+      </c>
+      <c r="B295" s="4">
         <f t="shared" si="17"/>
-        <v>725</v>
-      </c>
-      <c r="B295" s="4"/>
+        <v>2725</v>
+      </c>
       <c r="C295" s="4"/>
       <c r="D295" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K295" s="6"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
+        <f t="shared" si="18"/>
+        <v>726</v>
+      </c>
+      <c r="B296" s="4">
         <f t="shared" si="17"/>
-        <v>726</v>
-      </c>
-      <c r="B296" s="4"/>
+        <v>2726</v>
+      </c>
       <c r="C296" s="4"/>
       <c r="D296" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K296" s="6"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
+        <f t="shared" si="18"/>
+        <v>727</v>
+      </c>
+      <c r="B297" s="4">
         <f t="shared" si="17"/>
-        <v>727</v>
-      </c>
-      <c r="B297" s="4"/>
+        <v>2727</v>
+      </c>
       <c r="C297" s="4"/>
       <c r="D297" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K297" s="6"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
+        <f t="shared" si="18"/>
+        <v>728</v>
+      </c>
+      <c r="B298" s="4">
         <f t="shared" si="17"/>
-        <v>728</v>
-      </c>
-      <c r="B298" s="4"/>
+        <v>2728</v>
+      </c>
       <c r="C298" s="4"/>
       <c r="D298" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K298" s="6"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
+        <f t="shared" si="18"/>
+        <v>729</v>
+      </c>
+      <c r="B299" s="4">
         <f t="shared" si="17"/>
-        <v>729</v>
-      </c>
-      <c r="B299" s="4"/>
+        <v>2729</v>
+      </c>
       <c r="C299" s="4"/>
       <c r="D299" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J299" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K299" s="6"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
+        <f t="shared" si="18"/>
+        <v>730</v>
+      </c>
+      <c r="B300" s="4">
         <f t="shared" si="17"/>
-        <v>730</v>
-      </c>
-      <c r="B300" s="4"/>
+        <v>2730</v>
+      </c>
       <c r="C300" s="4"/>
       <c r="D300" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K300" s="6"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
+        <f t="shared" si="18"/>
+        <v>731</v>
+      </c>
+      <c r="B301" s="4">
         <f t="shared" si="17"/>
-        <v>731</v>
-      </c>
-      <c r="B301" s="4"/>
+        <v>2731</v>
+      </c>
       <c r="C301" s="4"/>
       <c r="D301" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K301" s="6"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
+        <f t="shared" si="18"/>
+        <v>732</v>
+      </c>
+      <c r="B302" s="4">
         <f t="shared" si="17"/>
-        <v>732</v>
-      </c>
-      <c r="B302" s="4"/>
+        <v>2732</v>
+      </c>
       <c r="C302" s="4"/>
       <c r="D302" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F302" s="5" t="s">
         <v>68</v>
@@ -12949,16 +13060,19 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
+        <f t="shared" si="18"/>
+        <v>733</v>
+      </c>
+      <c r="B303" s="4">
         <f t="shared" si="17"/>
-        <v>733</v>
-      </c>
-      <c r="B303" s="4"/>
+        <v>2733</v>
+      </c>
       <c r="C303" s="4"/>
       <c r="D303" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F303" s="5" t="s">
         <v>68</v>
@@ -12979,16 +13093,19 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
+        <f t="shared" si="18"/>
+        <v>734</v>
+      </c>
+      <c r="B304" s="4">
         <f t="shared" si="17"/>
-        <v>734</v>
-      </c>
-      <c r="B304" s="4"/>
+        <v>2734</v>
+      </c>
       <c r="C304" s="4"/>
       <c r="D304" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F304" s="5" t="s">
         <v>68</v>
@@ -13009,16 +13126,19 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
+        <f t="shared" si="18"/>
+        <v>735</v>
+      </c>
+      <c r="B305" s="4">
         <f t="shared" si="17"/>
-        <v>735</v>
-      </c>
-      <c r="B305" s="4"/>
+        <v>2735</v>
+      </c>
       <c r="C305" s="4"/>
       <c r="D305" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>68</v>
@@ -13039,16 +13159,19 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
+        <f t="shared" si="18"/>
+        <v>736</v>
+      </c>
+      <c r="B306" s="4">
         <f t="shared" si="17"/>
-        <v>736</v>
-      </c>
-      <c r="B306" s="4"/>
+        <v>2736</v>
+      </c>
       <c r="C306" s="4"/>
       <c r="D306" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F306" s="5" t="s">
         <v>68</v>
@@ -13069,13 +13192,16 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
+        <f t="shared" si="18"/>
+        <v>737</v>
+      </c>
+      <c r="B307" s="4">
         <f t="shared" si="17"/>
-        <v>737</v>
-      </c>
-      <c r="B307" s="4"/>
+        <v>2737</v>
+      </c>
       <c r="C307" s="4"/>
       <c r="D307" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>68</v>
@@ -13099,13 +13225,16 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
+        <f t="shared" si="18"/>
+        <v>738</v>
+      </c>
+      <c r="B308" s="4">
         <f t="shared" si="17"/>
-        <v>738</v>
-      </c>
-      <c r="B308" s="4"/>
+        <v>2738</v>
+      </c>
       <c r="C308" s="4"/>
       <c r="D308" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>68</v>
@@ -13129,13 +13258,16 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
+        <f t="shared" si="18"/>
+        <v>739</v>
+      </c>
+      <c r="B309" s="4">
         <f t="shared" si="17"/>
-        <v>739</v>
-      </c>
-      <c r="B309" s="4"/>
+        <v>2739</v>
+      </c>
       <c r="C309" s="4"/>
       <c r="D309" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>68</v>
@@ -13159,259 +13291,286 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
+        <f t="shared" si="18"/>
+        <v>740</v>
+      </c>
+      <c r="B310" s="4">
         <f t="shared" si="17"/>
-        <v>740</v>
-      </c>
-      <c r="B310" s="4"/>
+        <v>2740</v>
+      </c>
       <c r="C310" s="4"/>
       <c r="D310" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G310" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J310" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K310" s="6"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
+        <f t="shared" si="18"/>
+        <v>741</v>
+      </c>
+      <c r="B311" s="4">
         <f t="shared" si="17"/>
-        <v>741</v>
-      </c>
-      <c r="B311" s="4"/>
+        <v>2741</v>
+      </c>
       <c r="C311" s="4"/>
       <c r="D311" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G311" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J311" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K311" s="6"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
+        <f t="shared" si="18"/>
+        <v>742</v>
+      </c>
+      <c r="B312" s="4">
         <f t="shared" si="17"/>
-        <v>742</v>
-      </c>
-      <c r="B312" s="4"/>
+        <v>2742</v>
+      </c>
       <c r="C312" s="4"/>
       <c r="D312" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G312" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J312" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K312" s="6"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
+        <f t="shared" si="18"/>
+        <v>743</v>
+      </c>
+      <c r="B313" s="4">
         <f t="shared" si="17"/>
-        <v>743</v>
-      </c>
-      <c r="B313" s="4"/>
+        <v>2743</v>
+      </c>
       <c r="C313" s="4"/>
       <c r="D313" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G313" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K313" s="6"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
+        <f t="shared" si="18"/>
+        <v>744</v>
+      </c>
+      <c r="B314" s="4">
         <f t="shared" si="17"/>
-        <v>744</v>
-      </c>
-      <c r="B314" s="4"/>
+        <v>2744</v>
+      </c>
       <c r="C314" s="4"/>
       <c r="D314" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G314" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>68</v>
+        <v>499</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K314" s="6"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
+        <f t="shared" si="18"/>
+        <v>745</v>
+      </c>
+      <c r="B315" s="4">
         <f t="shared" si="17"/>
-        <v>745</v>
-      </c>
-      <c r="B315" s="4"/>
+        <v>2745</v>
+      </c>
       <c r="C315" s="4"/>
       <c r="D315" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>68</v>
+        <v>500</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K315" s="6"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
+        <f t="shared" si="18"/>
+        <v>746</v>
+      </c>
+      <c r="B316" s="4">
         <f t="shared" si="17"/>
-        <v>746</v>
-      </c>
-      <c r="B316" s="4"/>
+        <v>2746</v>
+      </c>
       <c r="C316" s="4"/>
       <c r="D316" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G316" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>68</v>
+        <v>501</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K316" s="6"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
+        <f t="shared" si="18"/>
+        <v>747</v>
+      </c>
+      <c r="B317" s="4">
         <f t="shared" si="17"/>
-        <v>747</v>
-      </c>
-      <c r="B317" s="4"/>
+        <v>2747</v>
+      </c>
       <c r="C317" s="4"/>
       <c r="D317" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G317" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>68</v>
+        <v>502</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J317" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K317" s="6"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
+        <f t="shared" si="18"/>
+        <v>748</v>
+      </c>
+      <c r="B318" s="4">
         <f t="shared" si="17"/>
-        <v>748</v>
-      </c>
-      <c r="B318" s="4"/>
+        <v>2748</v>
+      </c>
       <c r="C318" s="4"/>
       <c r="D318" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G318" s="5" t="s">
         <v>68</v>
@@ -13420,28 +13579,31 @@
         <v>68</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J318" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K318" s="6"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
+        <f t="shared" si="18"/>
+        <v>749</v>
+      </c>
+      <c r="B319" s="4">
         <f t="shared" si="17"/>
-        <v>749</v>
-      </c>
-      <c r="B319" s="4"/>
+        <v>2749</v>
+      </c>
       <c r="C319" s="4"/>
       <c r="D319" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>68</v>
@@ -13450,28 +13612,31 @@
         <v>68</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K319" s="6"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
+        <f t="shared" si="18"/>
+        <v>750</v>
+      </c>
+      <c r="B320" s="4">
         <f t="shared" si="17"/>
-        <v>750</v>
-      </c>
-      <c r="B320" s="4"/>
+        <v>2750</v>
+      </c>
       <c r="C320" s="4"/>
       <c r="D320" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>68</v>
@@ -13480,28 +13645,31 @@
         <v>68</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K320" s="6"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
+        <f t="shared" si="18"/>
+        <v>751</v>
+      </c>
+      <c r="B321" s="4">
         <f t="shared" si="17"/>
-        <v>751</v>
-      </c>
-      <c r="B321" s="4"/>
+        <v>2751</v>
+      </c>
       <c r="C321" s="4"/>
       <c r="D321" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G321" s="5" t="s">
         <v>68</v>
@@ -13510,28 +13678,31 @@
         <v>68</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K321" s="6"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
+        <f t="shared" si="18"/>
+        <v>752</v>
+      </c>
+      <c r="B322" s="4">
         <f t="shared" si="17"/>
-        <v>752</v>
-      </c>
-      <c r="B322" s="4"/>
+        <v>2752</v>
+      </c>
       <c r="C322" s="4"/>
       <c r="D322" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G322" s="5" t="s">
         <v>68</v>
@@ -13540,28 +13711,31 @@
         <v>68</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K322" s="6"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
+        <f t="shared" si="18"/>
+        <v>753</v>
+      </c>
+      <c r="B323" s="4">
         <f t="shared" si="17"/>
-        <v>753</v>
-      </c>
-      <c r="B323" s="4"/>
+        <v>2753</v>
+      </c>
       <c r="C323" s="4"/>
       <c r="D323" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G323" s="5" t="s">
         <v>68</v>
@@ -13570,28 +13744,31 @@
         <v>68</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K323" s="6"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
+        <f t="shared" si="18"/>
+        <v>754</v>
+      </c>
+      <c r="B324" s="4">
         <f t="shared" si="17"/>
-        <v>754</v>
-      </c>
-      <c r="B324" s="4"/>
+        <v>2754</v>
+      </c>
       <c r="C324" s="4"/>
       <c r="D324" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G324" s="5" t="s">
         <v>68</v>
@@ -13600,28 +13777,31 @@
         <v>68</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J324" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K324" s="6"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
+        <f t="shared" si="18"/>
+        <v>755</v>
+      </c>
+      <c r="B325" s="4">
         <f t="shared" si="17"/>
-        <v>755</v>
-      </c>
-      <c r="B325" s="4"/>
+        <v>2755</v>
+      </c>
       <c r="C325" s="4"/>
       <c r="D325" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G325" s="5" t="s">
         <v>68</v>
@@ -13630,28 +13810,31 @@
         <v>68</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J325" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K325" s="6"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
+        <f t="shared" si="18"/>
+        <v>756</v>
+      </c>
+      <c r="B326" s="4">
         <f t="shared" si="17"/>
-        <v>756</v>
-      </c>
-      <c r="B326" s="4"/>
+        <v>2756</v>
+      </c>
       <c r="C326" s="4"/>
       <c r="D326" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G326" s="5" t="s">
         <v>68</v>
@@ -13660,28 +13843,31 @@
         <v>68</v>
       </c>
       <c r="I326" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J326" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K326" s="6"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
+        <f t="shared" si="18"/>
+        <v>757</v>
+      </c>
+      <c r="B327" s="4">
         <f t="shared" si="17"/>
-        <v>757</v>
-      </c>
-      <c r="B327" s="4"/>
+        <v>2757</v>
+      </c>
       <c r="C327" s="4"/>
       <c r="D327" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>68</v>
@@ -13690,28 +13876,31 @@
         <v>68</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J327" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K327" s="6"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
+        <f t="shared" si="18"/>
+        <v>758</v>
+      </c>
+      <c r="B328" s="4">
         <f t="shared" si="17"/>
-        <v>758</v>
-      </c>
-      <c r="B328" s="4"/>
+        <v>2758</v>
+      </c>
       <c r="C328" s="4"/>
       <c r="D328" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G328" s="5" t="s">
         <v>68</v>
@@ -13720,28 +13909,31 @@
         <v>68</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J328" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K328" s="6"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
+        <f t="shared" si="18"/>
+        <v>759</v>
+      </c>
+      <c r="B329" s="4">
         <f t="shared" si="17"/>
-        <v>759</v>
-      </c>
-      <c r="B329" s="4"/>
+        <v>2759</v>
+      </c>
       <c r="C329" s="4"/>
       <c r="D329" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G329" s="5" t="s">
         <v>68</v>
@@ -13750,28 +13942,31 @@
         <v>68</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J329" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K329" s="6"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
+        <f t="shared" si="18"/>
+        <v>760</v>
+      </c>
+      <c r="B330" s="4">
         <f t="shared" si="17"/>
-        <v>760</v>
-      </c>
-      <c r="B330" s="4"/>
+        <v>2760</v>
+      </c>
       <c r="C330" s="4"/>
       <c r="D330" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G330" s="5" t="s">
         <v>68</v>
@@ -13780,28 +13975,31 @@
         <v>68</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J330" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K330" s="6"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
+        <f t="shared" si="18"/>
+        <v>761</v>
+      </c>
+      <c r="B331" s="4">
         <f t="shared" si="17"/>
-        <v>761</v>
-      </c>
-      <c r="B331" s="4"/>
+        <v>2761</v>
+      </c>
       <c r="C331" s="4"/>
       <c r="D331" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>68</v>
@@ -13810,28 +14008,31 @@
         <v>68</v>
       </c>
       <c r="I331" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J331" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K331" s="6"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
+        <f t="shared" si="18"/>
+        <v>762</v>
+      </c>
+      <c r="B332" s="4">
         <f t="shared" si="17"/>
-        <v>762</v>
-      </c>
-      <c r="B332" s="4"/>
+        <v>2762</v>
+      </c>
       <c r="C332" s="4"/>
       <c r="D332" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G332" s="5" t="s">
         <v>68</v>
@@ -13840,28 +14041,31 @@
         <v>68</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J332" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K332" s="6"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
+        <f t="shared" si="18"/>
+        <v>763</v>
+      </c>
+      <c r="B333" s="4">
         <f t="shared" si="17"/>
-        <v>763</v>
-      </c>
-      <c r="B333" s="4"/>
+        <v>2763</v>
+      </c>
       <c r="C333" s="4"/>
       <c r="D333" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G333" s="5" t="s">
         <v>68</v>
@@ -13870,28 +14074,31 @@
         <v>68</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J333" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K333" s="6"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
+        <f t="shared" si="18"/>
+        <v>764</v>
+      </c>
+      <c r="B334" s="4">
         <f t="shared" si="17"/>
-        <v>764</v>
-      </c>
-      <c r="B334" s="4"/>
+        <v>2764</v>
+      </c>
       <c r="C334" s="4"/>
       <c r="D334" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G334" s="5" t="s">
         <v>68</v>
@@ -13900,28 +14107,31 @@
         <v>68</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J334" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K334" s="6"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>765</v>
       </c>
-      <c r="B335" s="4"/>
+      <c r="B335" s="4">
+        <f t="shared" ref="B335:B398" si="19">A335+$B$3</f>
+        <v>2765</v>
+      </c>
       <c r="C335" s="4"/>
       <c r="D335" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G335" s="5" t="s">
         <v>68</v>
@@ -13930,28 +14140,31 @@
         <v>68</v>
       </c>
       <c r="I335" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J335" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K335" s="6"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <f t="shared" ref="A336:A399" si="18">A335+1</f>
+        <f t="shared" ref="A336:A399" si="20">A335+1</f>
         <v>766</v>
       </c>
-      <c r="B336" s="4"/>
+      <c r="B336" s="4">
+        <f t="shared" si="19"/>
+        <v>2766</v>
+      </c>
       <c r="C336" s="4"/>
       <c r="D336" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G336" s="5" t="s">
         <v>68</v>
@@ -13960,28 +14173,31 @@
         <v>68</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K336" s="6"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>767</v>
       </c>
-      <c r="B337" s="4"/>
+      <c r="B337" s="4">
+        <f t="shared" si="19"/>
+        <v>2767</v>
+      </c>
       <c r="C337" s="4"/>
       <c r="D337" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G337" s="5" t="s">
         <v>68</v>
@@ -13990,28 +14206,31 @@
         <v>68</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K337" s="6"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>768</v>
       </c>
-      <c r="B338" s="4"/>
+      <c r="B338" s="4">
+        <f t="shared" si="19"/>
+        <v>2768</v>
+      </c>
       <c r="C338" s="4"/>
       <c r="D338" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G338" s="5" t="s">
         <v>68</v>
@@ -14020,28 +14239,31 @@
         <v>68</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J338" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K338" s="6"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>769</v>
       </c>
-      <c r="B339" s="4"/>
+      <c r="B339" s="4">
+        <f t="shared" si="19"/>
+        <v>2769</v>
+      </c>
       <c r="C339" s="4"/>
       <c r="D339" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G339" s="5" t="s">
         <v>68</v>
@@ -14050,28 +14272,31 @@
         <v>68</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J339" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K339" s="6"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>770</v>
       </c>
-      <c r="B340" s="4"/>
+      <c r="B340" s="4">
+        <f t="shared" si="19"/>
+        <v>2770</v>
+      </c>
       <c r="C340" s="4"/>
       <c r="D340" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G340" s="5" t="s">
         <v>68</v>
@@ -14080,28 +14305,31 @@
         <v>68</v>
       </c>
       <c r="I340" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J340" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K340" s="6"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>771</v>
       </c>
-      <c r="B341" s="4"/>
+      <c r="B341" s="4">
+        <f t="shared" si="19"/>
+        <v>2771</v>
+      </c>
       <c r="C341" s="4"/>
       <c r="D341" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G341" s="5" t="s">
         <v>68</v>
@@ -14110,268 +14338,295 @@
         <v>68</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J341" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K341" s="6"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>772</v>
       </c>
-      <c r="B342" s="4"/>
+      <c r="B342" s="4">
+        <f t="shared" si="19"/>
+        <v>2772</v>
+      </c>
       <c r="C342" s="4"/>
       <c r="D342" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G342" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K342" s="6"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>773</v>
       </c>
-      <c r="B343" s="4"/>
+      <c r="B343" s="4">
+        <f t="shared" si="19"/>
+        <v>2773</v>
+      </c>
       <c r="C343" s="4"/>
       <c r="D343" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G343" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K343" s="6"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>774</v>
       </c>
-      <c r="B344" s="4"/>
+      <c r="B344" s="4">
+        <f t="shared" si="19"/>
+        <v>2774</v>
+      </c>
       <c r="C344" s="4"/>
       <c r="D344" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G344" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K344" s="6"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>775</v>
       </c>
-      <c r="B345" s="4"/>
+      <c r="B345" s="4">
+        <f t="shared" si="19"/>
+        <v>2775</v>
+      </c>
       <c r="C345" s="4"/>
       <c r="D345" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G345" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K345" s="6"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>776</v>
       </c>
-      <c r="B346" s="4"/>
+      <c r="B346" s="4">
+        <f t="shared" si="19"/>
+        <v>2776</v>
+      </c>
       <c r="C346" s="4"/>
       <c r="D346" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G346" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>68</v>
+        <v>531</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K346" s="6"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>777</v>
       </c>
-      <c r="B347" s="4"/>
+      <c r="B347" s="4">
+        <f t="shared" si="19"/>
+        <v>2777</v>
+      </c>
       <c r="C347" s="4"/>
       <c r="D347" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G347" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>68</v>
+        <v>532</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K347" s="6"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>778</v>
       </c>
-      <c r="B348" s="4"/>
+      <c r="B348" s="4">
+        <f t="shared" si="19"/>
+        <v>2778</v>
+      </c>
       <c r="C348" s="4"/>
       <c r="D348" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G348" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>68</v>
+        <v>533</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K348" s="6"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>779</v>
       </c>
-      <c r="B349" s="4"/>
+      <c r="B349" s="4">
+        <f t="shared" si="19"/>
+        <v>2779</v>
+      </c>
       <c r="C349" s="4"/>
       <c r="D349" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G349" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>68</v>
+        <v>534</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K349" s="6"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>780</v>
       </c>
-      <c r="B350" s="4"/>
+      <c r="B350" s="4">
+        <f t="shared" si="19"/>
+        <v>2780</v>
+      </c>
       <c r="C350" s="4"/>
       <c r="D350" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G350" s="5" t="s">
         <v>68</v>
@@ -14380,28 +14635,31 @@
         <v>68</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K350" s="6"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>781</v>
       </c>
-      <c r="B351" s="4"/>
+      <c r="B351" s="4">
+        <f t="shared" si="19"/>
+        <v>2781</v>
+      </c>
       <c r="C351" s="4"/>
       <c r="D351" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>68</v>
@@ -14410,28 +14668,31 @@
         <v>68</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K351" s="6"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>782</v>
       </c>
-      <c r="B352" s="4"/>
+      <c r="B352" s="4">
+        <f t="shared" si="19"/>
+        <v>2782</v>
+      </c>
       <c r="C352" s="4"/>
       <c r="D352" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G352" s="5" t="s">
         <v>68</v>
@@ -14440,28 +14701,31 @@
         <v>68</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K352" s="6"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>783</v>
       </c>
-      <c r="B353" s="4"/>
+      <c r="B353" s="4">
+        <f t="shared" si="19"/>
+        <v>2783</v>
+      </c>
       <c r="C353" s="4"/>
       <c r="D353" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G353" s="5" t="s">
         <v>68</v>
@@ -14470,28 +14734,31 @@
         <v>68</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K353" s="6"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>784</v>
       </c>
-      <c r="B354" s="4"/>
+      <c r="B354" s="4">
+        <f t="shared" si="19"/>
+        <v>2784</v>
+      </c>
       <c r="C354" s="4"/>
       <c r="D354" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G354" s="5" t="s">
         <v>68</v>
@@ -14500,28 +14767,31 @@
         <v>68</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K354" s="6"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>785</v>
       </c>
-      <c r="B355" s="4"/>
+      <c r="B355" s="4">
+        <f t="shared" si="19"/>
+        <v>2785</v>
+      </c>
       <c r="C355" s="4"/>
       <c r="D355" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>68</v>
@@ -14530,28 +14800,31 @@
         <v>68</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K355" s="6"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>786</v>
       </c>
-      <c r="B356" s="4"/>
+      <c r="B356" s="4">
+        <f t="shared" si="19"/>
+        <v>2786</v>
+      </c>
       <c r="C356" s="4"/>
       <c r="D356" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G356" s="5" t="s">
         <v>68</v>
@@ -14560,28 +14833,31 @@
         <v>68</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K356" s="6"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>787</v>
       </c>
-      <c r="B357" s="4"/>
+      <c r="B357" s="4">
+        <f t="shared" si="19"/>
+        <v>2787</v>
+      </c>
       <c r="C357" s="4"/>
       <c r="D357" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G357" s="5" t="s">
         <v>68</v>
@@ -14590,28 +14866,31 @@
         <v>68</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K357" s="6"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>788</v>
       </c>
-      <c r="B358" s="4"/>
+      <c r="B358" s="4">
+        <f t="shared" si="19"/>
+        <v>2788</v>
+      </c>
       <c r="C358" s="4"/>
       <c r="D358" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G358" s="5" t="s">
         <v>68</v>
@@ -14620,28 +14899,31 @@
         <v>68</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K358" s="6"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>789</v>
       </c>
-      <c r="B359" s="4"/>
+      <c r="B359" s="4">
+        <f t="shared" si="19"/>
+        <v>2789</v>
+      </c>
       <c r="C359" s="4"/>
       <c r="D359" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G359" s="5" t="s">
         <v>68</v>
@@ -14650,28 +14932,31 @@
         <v>68</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K359" s="6"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>790</v>
       </c>
-      <c r="B360" s="4"/>
+      <c r="B360" s="4">
+        <f t="shared" si="19"/>
+        <v>2790</v>
+      </c>
       <c r="C360" s="4"/>
       <c r="D360" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>68</v>
@@ -14680,28 +14965,31 @@
         <v>68</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K360" s="6"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>791</v>
       </c>
-      <c r="B361" s="4"/>
+      <c r="B361" s="4">
+        <f t="shared" si="19"/>
+        <v>2791</v>
+      </c>
       <c r="C361" s="4"/>
       <c r="D361" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G361" s="5" t="s">
         <v>68</v>
@@ -14710,28 +14998,31 @@
         <v>68</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K361" s="6"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>792</v>
       </c>
-      <c r="B362" s="4"/>
+      <c r="B362" s="4">
+        <f t="shared" si="19"/>
+        <v>2792</v>
+      </c>
       <c r="C362" s="4"/>
       <c r="D362" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>68</v>
@@ -14740,28 +15031,31 @@
         <v>68</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K362" s="6"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>793</v>
       </c>
-      <c r="B363" s="4"/>
+      <c r="B363" s="4">
+        <f t="shared" si="19"/>
+        <v>2793</v>
+      </c>
       <c r="C363" s="4"/>
       <c r="D363" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>68</v>
@@ -14770,28 +15064,31 @@
         <v>68</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K363" s="6"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>794</v>
       </c>
-      <c r="B364" s="4"/>
+      <c r="B364" s="4">
+        <f t="shared" si="19"/>
+        <v>2794</v>
+      </c>
       <c r="C364" s="4"/>
       <c r="D364" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G364" s="5" t="s">
         <v>68</v>
@@ -14800,28 +15097,31 @@
         <v>68</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K364" s="6"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>795</v>
       </c>
-      <c r="B365" s="4"/>
+      <c r="B365" s="4">
+        <f t="shared" si="19"/>
+        <v>2795</v>
+      </c>
       <c r="C365" s="4"/>
       <c r="D365" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>68</v>
@@ -14830,28 +15130,31 @@
         <v>68</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K365" s="6"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>796</v>
       </c>
-      <c r="B366" s="4"/>
+      <c r="B366" s="4">
+        <f t="shared" si="19"/>
+        <v>2796</v>
+      </c>
       <c r="C366" s="4"/>
       <c r="D366" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>68</v>
@@ -14860,28 +15163,31 @@
         <v>68</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K366" s="6"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>797</v>
       </c>
-      <c r="B367" s="4"/>
+      <c r="B367" s="4">
+        <f t="shared" si="19"/>
+        <v>2797</v>
+      </c>
       <c r="C367" s="4"/>
       <c r="D367" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>68</v>
@@ -14890,28 +15196,31 @@
         <v>68</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K367" s="6"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>798</v>
       </c>
-      <c r="B368" s="4"/>
+      <c r="B368" s="4">
+        <f t="shared" si="19"/>
+        <v>2798</v>
+      </c>
       <c r="C368" s="4"/>
       <c r="D368" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>68</v>
@@ -14920,28 +15229,31 @@
         <v>68</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K368" s="6"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>799</v>
       </c>
-      <c r="B369" s="4"/>
+      <c r="B369" s="4">
+        <f t="shared" si="19"/>
+        <v>2799</v>
+      </c>
       <c r="C369" s="4"/>
       <c r="D369" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>68</v>
@@ -14950,28 +15262,31 @@
         <v>68</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K369" s="6"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
-      <c r="B370" s="4"/>
+      <c r="B370" s="4">
+        <f t="shared" si="19"/>
+        <v>2800</v>
+      </c>
       <c r="C370" s="4"/>
       <c r="D370" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>68</v>
@@ -14980,28 +15295,31 @@
         <v>68</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K370" s="6"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>801</v>
       </c>
-      <c r="B371" s="4"/>
+      <c r="B371" s="4">
+        <f t="shared" si="19"/>
+        <v>2801</v>
+      </c>
       <c r="C371" s="4"/>
       <c r="D371" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>68</v>
@@ -15010,28 +15328,31 @@
         <v>68</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K371" s="6"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>802</v>
       </c>
-      <c r="B372" s="4"/>
+      <c r="B372" s="4">
+        <f t="shared" si="19"/>
+        <v>2802</v>
+      </c>
       <c r="C372" s="4"/>
       <c r="D372" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>68</v>
@@ -15040,28 +15361,31 @@
         <v>68</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K372" s="6"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>803</v>
       </c>
-      <c r="B373" s="4"/>
+      <c r="B373" s="4">
+        <f t="shared" si="19"/>
+        <v>2803</v>
+      </c>
       <c r="C373" s="4"/>
       <c r="D373" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>68</v>
@@ -15070,268 +15394,295 @@
         <v>68</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K373" s="6"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>804</v>
       </c>
-      <c r="B374" s="4"/>
+      <c r="B374" s="4">
+        <f t="shared" si="19"/>
+        <v>2804</v>
+      </c>
       <c r="C374" s="4"/>
       <c r="D374" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K374" s="6"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>805</v>
       </c>
-      <c r="B375" s="4"/>
+      <c r="B375" s="4">
+        <f t="shared" si="19"/>
+        <v>2805</v>
+      </c>
       <c r="C375" s="4"/>
       <c r="D375" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J375" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K375" s="6"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>806</v>
       </c>
-      <c r="B376" s="4"/>
+      <c r="B376" s="4">
+        <f t="shared" si="19"/>
+        <v>2806</v>
+      </c>
       <c r="C376" s="4"/>
       <c r="D376" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K376" s="6"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>807</v>
       </c>
-      <c r="B377" s="4"/>
+      <c r="B377" s="4">
+        <f t="shared" si="19"/>
+        <v>2807</v>
+      </c>
       <c r="C377" s="4"/>
       <c r="D377" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J377" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K377" s="6"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>808</v>
       </c>
-      <c r="B378" s="4"/>
+      <c r="B378" s="4">
+        <f t="shared" si="19"/>
+        <v>2808</v>
+      </c>
       <c r="C378" s="4"/>
       <c r="D378" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>68</v>
+        <v>563</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K378" s="6"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>809</v>
       </c>
-      <c r="B379" s="4"/>
+      <c r="B379" s="4">
+        <f t="shared" si="19"/>
+        <v>2809</v>
+      </c>
       <c r="C379" s="4"/>
       <c r="D379" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>68</v>
+        <v>564</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J379" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K379" s="6"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>810</v>
       </c>
-      <c r="B380" s="4"/>
+      <c r="B380" s="4">
+        <f t="shared" si="19"/>
+        <v>2810</v>
+      </c>
       <c r="C380" s="4"/>
       <c r="D380" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>68</v>
+        <v>565</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J380" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K380" s="6"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>811</v>
       </c>
-      <c r="B381" s="4"/>
+      <c r="B381" s="4">
+        <f t="shared" si="19"/>
+        <v>2811</v>
+      </c>
       <c r="C381" s="4"/>
       <c r="D381" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>68</v>
+        <v>566</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K381" s="6"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>812</v>
       </c>
-      <c r="B382" s="4"/>
+      <c r="B382" s="4">
+        <f t="shared" si="19"/>
+        <v>2812</v>
+      </c>
       <c r="C382" s="4"/>
       <c r="D382" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>68</v>
@@ -15340,28 +15691,31 @@
         <v>68</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K382" s="6"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>813</v>
       </c>
-      <c r="B383" s="4"/>
+      <c r="B383" s="4">
+        <f t="shared" si="19"/>
+        <v>2813</v>
+      </c>
       <c r="C383" s="4"/>
       <c r="D383" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>68</v>
@@ -15370,28 +15724,31 @@
         <v>68</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K383" s="6"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>814</v>
       </c>
-      <c r="B384" s="4"/>
+      <c r="B384" s="4">
+        <f t="shared" si="19"/>
+        <v>2814</v>
+      </c>
       <c r="C384" s="4"/>
       <c r="D384" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>68</v>
@@ -15400,28 +15757,31 @@
         <v>68</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K384" s="6"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>815</v>
       </c>
-      <c r="B385" s="4"/>
+      <c r="B385" s="4">
+        <f t="shared" si="19"/>
+        <v>2815</v>
+      </c>
       <c r="C385" s="4"/>
       <c r="D385" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>68</v>
@@ -15430,28 +15790,31 @@
         <v>68</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K385" s="6"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>816</v>
       </c>
-      <c r="B386" s="4"/>
+      <c r="B386" s="4">
+        <f t="shared" si="19"/>
+        <v>2816</v>
+      </c>
       <c r="C386" s="4"/>
       <c r="D386" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>68</v>
@@ -15460,28 +15823,31 @@
         <v>68</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J386" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K386" s="6"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>817</v>
       </c>
-      <c r="B387" s="4"/>
+      <c r="B387" s="4">
+        <f t="shared" si="19"/>
+        <v>2817</v>
+      </c>
       <c r="C387" s="4"/>
       <c r="D387" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>68</v>
@@ -15490,28 +15856,31 @@
         <v>68</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J387" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K387" s="6"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>818</v>
       </c>
-      <c r="B388" s="4"/>
+      <c r="B388" s="4">
+        <f t="shared" si="19"/>
+        <v>2818</v>
+      </c>
       <c r="C388" s="4"/>
       <c r="D388" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G388" s="5" t="s">
         <v>68</v>
@@ -15520,28 +15889,31 @@
         <v>68</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J388" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K388" s="6"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>819</v>
       </c>
-      <c r="B389" s="4"/>
+      <c r="B389" s="4">
+        <f t="shared" si="19"/>
+        <v>2819</v>
+      </c>
       <c r="C389" s="4"/>
       <c r="D389" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>68</v>
@@ -15550,28 +15922,31 @@
         <v>68</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J389" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K389" s="6"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>820</v>
       </c>
-      <c r="B390" s="4"/>
+      <c r="B390" s="4">
+        <f t="shared" si="19"/>
+        <v>2820</v>
+      </c>
       <c r="C390" s="4"/>
       <c r="D390" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E390" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G390" s="5" t="s">
         <v>68</v>
@@ -15580,28 +15955,31 @@
         <v>68</v>
       </c>
       <c r="I390" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J390" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K390" s="6"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>821</v>
       </c>
-      <c r="B391" s="4"/>
+      <c r="B391" s="4">
+        <f t="shared" si="19"/>
+        <v>2821</v>
+      </c>
       <c r="C391" s="4"/>
       <c r="D391" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E391" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G391" s="5" t="s">
         <v>68</v>
@@ -15610,28 +15988,31 @@
         <v>68</v>
       </c>
       <c r="I391" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J391" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K391" s="6"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>822</v>
       </c>
-      <c r="B392" s="4"/>
+      <c r="B392" s="4">
+        <f t="shared" si="19"/>
+        <v>2822</v>
+      </c>
       <c r="C392" s="4"/>
       <c r="D392" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E392" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>68</v>
@@ -15640,28 +16021,31 @@
         <v>68</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J392" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K392" s="6"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>823</v>
       </c>
-      <c r="B393" s="4"/>
+      <c r="B393" s="4">
+        <f t="shared" si="19"/>
+        <v>2823</v>
+      </c>
       <c r="C393" s="4"/>
       <c r="D393" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>68</v>
@@ -15670,28 +16054,31 @@
         <v>68</v>
       </c>
       <c r="I393" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J393" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K393" s="6"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>824</v>
       </c>
-      <c r="B394" s="4"/>
+      <c r="B394" s="4">
+        <f t="shared" si="19"/>
+        <v>2824</v>
+      </c>
       <c r="C394" s="4"/>
       <c r="D394" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>68</v>
@@ -15700,28 +16087,31 @@
         <v>68</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J394" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K394" s="6"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>825</v>
       </c>
-      <c r="B395" s="4"/>
+      <c r="B395" s="4">
+        <f t="shared" si="19"/>
+        <v>2825</v>
+      </c>
       <c r="C395" s="4"/>
       <c r="D395" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E395" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>68</v>
@@ -15730,28 +16120,31 @@
         <v>68</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K395" s="6"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>826</v>
       </c>
-      <c r="B396" s="4"/>
+      <c r="B396" s="4">
+        <f t="shared" si="19"/>
+        <v>2826</v>
+      </c>
       <c r="C396" s="4"/>
       <c r="D396" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E396" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>68</v>
@@ -15760,28 +16153,31 @@
         <v>68</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K396" s="6"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>827</v>
       </c>
-      <c r="B397" s="4"/>
+      <c r="B397" s="4">
+        <f t="shared" si="19"/>
+        <v>2827</v>
+      </c>
       <c r="C397" s="4"/>
       <c r="D397" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E397" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>68</v>
@@ -15790,28 +16186,31 @@
         <v>68</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K397" s="6"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>828</v>
       </c>
-      <c r="B398" s="4"/>
+      <c r="B398" s="4">
+        <f t="shared" si="19"/>
+        <v>2828</v>
+      </c>
       <c r="C398" s="4"/>
       <c r="D398" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E398" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>68</v>
@@ -15820,28 +16219,31 @@
         <v>68</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K398" s="6"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>829</v>
       </c>
-      <c r="B399" s="4"/>
+      <c r="B399" s="4">
+        <f t="shared" ref="B399:B405" si="21">A399+$B$3</f>
+        <v>2829</v>
+      </c>
       <c r="C399" s="4"/>
       <c r="D399" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E399" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>68</v>
@@ -15850,28 +16252,31 @@
         <v>68</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K399" s="6"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <f t="shared" ref="A400:A405" si="19">A399+1</f>
+        <f t="shared" ref="A400:A405" si="22">A399+1</f>
         <v>830</v>
       </c>
-      <c r="B400" s="4"/>
+      <c r="B400" s="4">
+        <f t="shared" si="21"/>
+        <v>2830</v>
+      </c>
       <c r="C400" s="4"/>
       <c r="D400" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>68</v>
@@ -15880,28 +16285,31 @@
         <v>68</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K400" s="6"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>831</v>
       </c>
-      <c r="B401" s="4"/>
+      <c r="B401" s="4">
+        <f t="shared" si="21"/>
+        <v>2831</v>
+      </c>
       <c r="C401" s="4"/>
       <c r="D401" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>68</v>
@@ -15910,28 +16318,31 @@
         <v>68</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K401" s="6"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>832</v>
       </c>
-      <c r="B402" s="4"/>
+      <c r="B402" s="4">
+        <f t="shared" si="21"/>
+        <v>2832</v>
+      </c>
       <c r="C402" s="4"/>
       <c r="D402" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>68</v>
@@ -15940,28 +16351,31 @@
         <v>68</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K402" s="6"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>833</v>
       </c>
-      <c r="B403" s="4"/>
+      <c r="B403" s="4">
+        <f t="shared" si="21"/>
+        <v>2833</v>
+      </c>
       <c r="C403" s="4"/>
       <c r="D403" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E403" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>68</v>
@@ -15970,28 +16384,31 @@
         <v>68</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K403" s="6"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>834</v>
       </c>
-      <c r="B404" s="4"/>
+      <c r="B404" s="4">
+        <f t="shared" si="21"/>
+        <v>2834</v>
+      </c>
       <c r="C404" s="4"/>
       <c r="D404" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E404" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>68</v>
@@ -16000,28 +16417,31 @@
         <v>68</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K404" s="6"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>835</v>
       </c>
-      <c r="B405" s="4"/>
+      <c r="B405" s="4">
+        <f t="shared" si="21"/>
+        <v>2835</v>
+      </c>
       <c r="C405" s="4"/>
       <c r="D405" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E405" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>68</v>
@@ -16030,10 +16450,10 @@
         <v>68</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K405" s="6"/>
     </row>
